--- a/Pilot_Results/Pilot_Results.xlsx
+++ b/Pilot_Results/Pilot_Results.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Data Lable" sheetId="1" r:id="rId1"/>
-    <sheet name="Evaluation" sheetId="2" r:id="rId2"/>
+    <sheet name="Evaluation" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Lable'!$D$1:$D$90</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="119">
   <si>
     <t>Link</t>
   </si>
@@ -273,6 +273,108 @@
     <t>kappa=0.834</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>LLM</t>
+  </si>
+  <si>
+    <t>Prompting Strategies</t>
+  </si>
+  <si>
+    <t>Insightful (First Author)</t>
+  </si>
+  <si>
+    <t>Helpful  (First Author)</t>
+  </si>
+  <si>
+    <t>Uncertain  (First Author)</t>
+  </si>
+  <si>
+    <t>Misleading  (First Author)</t>
+  </si>
+  <si>
+    <t>Insightful (Second Author)</t>
+  </si>
+  <si>
+    <t>Helpful  (Second Author)</t>
+  </si>
+  <si>
+    <t>Uncertain  (Second Author)</t>
+  </si>
+  <si>
+    <t>Misleading  (Second Author)</t>
+  </si>
+  <si>
+    <t>#SO 76313670</t>
+  </si>
+  <si>
+    <t>gpt-3.5-turbo</t>
+  </si>
+  <si>
+    <t>zeroshot</t>
+  </si>
+  <si>
+    <t>#SO 77070210</t>
+  </si>
+  <si>
+    <t>gpt-4-0613</t>
+  </si>
+  <si>
+    <t>#Issue 2378</t>
+  </si>
+  <si>
+    <t>gemini-1.0-pro</t>
+  </si>
+  <si>
+    <t>#SO 77290436</t>
+  </si>
+  <si>
+    <t>Llama3-8B</t>
+  </si>
+  <si>
+    <t>#Discussion 626</t>
+  </si>
+  <si>
+    <t>mistral-7B</t>
+  </si>
+  <si>
+    <t>#SO 77615623</t>
+  </si>
+  <si>
+    <t>CoT</t>
+  </si>
+  <si>
+    <t>#Discussion 3597</t>
+  </si>
+  <si>
+    <t>#SO 77386644</t>
+  </si>
+  <si>
+    <t>#SO 77875225</t>
+  </si>
+  <si>
+    <t>#SO 78166966</t>
+  </si>
+  <si>
+    <t>#Discussion 214</t>
+  </si>
+  <si>
+    <t>LLM-based Agent</t>
+  </si>
+  <si>
+    <t>#Issue 270</t>
+  </si>
+  <si>
+    <t>#SO 77361294</t>
+  </si>
+  <si>
+    <t>#Issue 7560</t>
+  </si>
+  <si>
+    <t>#SO 77224893</t>
+  </si>
+  <si>
     <t>Insightful</t>
   </si>
   <si>
@@ -285,10 +387,7 @@
     <t>Misleading</t>
   </si>
   <si>
-    <t>kappa=0.686</t>
-  </si>
-  <si>
-    <t>·</t>
+    <t>kappa=0.738</t>
   </si>
 </sst>
 </file>
@@ -487,7 +586,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +596,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,6 +804,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalDown="1">
@@ -703,15 +823,6 @@
       <diagonal style="thin">
         <color auto="1"/>
       </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -837,7 +948,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -861,16 +972,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -879,98 +990,107 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1308,1141 +1428,1141 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.5" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="15.5" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="15.5" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="15.5" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="15.5" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="15.5" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="15.5" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="15.5" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="15.5" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="15.5" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="15.5" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="15.5" spans="1:4">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="15.5" spans="1:4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="15.5" spans="1:4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="15.5" spans="1:4">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="15.5" spans="1:4">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="15.5" spans="1:4">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="15.5" spans="1:4">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="15.5" spans="1:4">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="23" ht="15.5" spans="1:4">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="15.5" spans="1:4">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="15.5" spans="1:4">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="15.5" spans="1:4">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" ht="15.5" spans="1:4">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="3">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" ht="15.5" spans="1:4">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="29" ht="15.5" spans="1:4">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="30" ht="15.5" spans="1:4">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="3">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="31" ht="15.5" spans="1:4">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="3">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="32" ht="15.5" spans="1:4">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="3">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="33" ht="15.5" spans="1:4">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="3">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B33" s="6">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="34" ht="15.5" spans="1:4">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="3">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="B34" s="6">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="35" ht="15.5" spans="1:4">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="3">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="36" ht="15.5" spans="1:4">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="B36" s="6">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="37" ht="15.5" spans="1:4">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="3">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="B37" s="6">
+        <v>0</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="38" ht="15.5" spans="1:4">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="3">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="39" ht="15.5" spans="1:4">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="3">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="40" ht="15.5" spans="1:4">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="3">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="B40" s="6">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="41" ht="15.5" spans="1:4">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="42" ht="15.5" spans="1:4">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="3">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="B42" s="6">
+        <v>0</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="43" ht="15.5" spans="1:4">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="B43" s="6">
+        <v>0</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="44" ht="15.5" spans="1:4">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="3">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="B44" s="6">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="45" ht="15.5" spans="1:4">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="3">
-        <v>0</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="B45" s="6">
+        <v>0</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="46" ht="15.5" spans="1:4">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="47" ht="15.5" spans="1:4">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="3">
-        <v>0</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="B47" s="6">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="48" ht="15.5" spans="1:4">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="3">
-        <v>0</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="B48" s="6">
+        <v>0</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="49" ht="15.5" spans="1:4">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="3">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="B49" s="6">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="50" ht="15.5" spans="1:4">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="3">
-        <v>0</v>
-      </c>
-      <c r="C50" s="3">
-        <v>0</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="B50" s="6">
+        <v>0</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="51" ht="15.5" spans="1:4">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="3">
-        <v>0</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="B51" s="6">
+        <v>0</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="52" ht="15.5" spans="1:4">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="3">
-        <v>1</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="B52" s="6">
+        <v>1</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="53" ht="15.5" spans="1:4">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="3">
-        <v>0</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="B53" s="6">
+        <v>0</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="54" ht="15.5" spans="1:4">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="3">
-        <v>0</v>
-      </c>
-      <c r="C54" s="3">
-        <v>0</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="B54" s="6">
+        <v>0</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="55" ht="15.5" spans="1:4">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="3">
-        <v>0</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="B55" s="6">
+        <v>0</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="56" ht="15.5" spans="1:4">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="3">
-        <v>0</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="B56" s="6">
+        <v>0</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="57" ht="15.5" spans="1:4">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="3">
-        <v>0</v>
-      </c>
-      <c r="C57" s="3">
-        <v>0</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="B57" s="6">
+        <v>0</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="58" ht="15.5" spans="1:4">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="3">
-        <v>0</v>
-      </c>
-      <c r="C58" s="3">
-        <v>0</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="B58" s="6">
+        <v>0</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="59" ht="15.5" spans="1:4">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="3">
-        <v>0</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="B59" s="6">
+        <v>0</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="60" ht="15.5" spans="1:4">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="3">
-        <v>1</v>
-      </c>
-      <c r="C60" s="3">
-        <v>1</v>
-      </c>
-      <c r="D60" s="3">
+      <c r="B60" s="6">
+        <v>1</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="61" ht="15.5" spans="1:4">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="3">
-        <v>0</v>
-      </c>
-      <c r="C61" s="3">
-        <v>0</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="B61" s="6">
+        <v>0</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="62" ht="15.5" spans="1:4">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="3">
-        <v>0</v>
-      </c>
-      <c r="C62" s="3">
-        <v>0</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="B62" s="6">
+        <v>0</v>
+      </c>
+      <c r="C62" s="6">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="63" ht="15.5" spans="1:4">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="3">
-        <v>0</v>
-      </c>
-      <c r="C63" s="3">
-        <v>0</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="B63" s="6">
+        <v>0</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="64" ht="15.5" spans="1:4">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="3">
-        <v>0</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="B64" s="6">
+        <v>0</v>
+      </c>
+      <c r="C64" s="6">
+        <v>0</v>
+      </c>
+      <c r="D64" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="65" ht="15.5" spans="1:4">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="3">
-        <v>0</v>
-      </c>
-      <c r="C65" s="3">
-        <v>0</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="B65" s="6">
+        <v>0</v>
+      </c>
+      <c r="C65" s="6">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="66" ht="15.5" spans="1:4">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="3">
-        <v>0</v>
-      </c>
-      <c r="C66" s="3">
-        <v>0</v>
-      </c>
-      <c r="D66" s="3">
+      <c r="B66" s="6">
+        <v>0</v>
+      </c>
+      <c r="C66" s="6">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="67" ht="15.5" spans="1:4">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="3">
-        <v>0</v>
-      </c>
-      <c r="C67" s="3">
-        <v>0</v>
-      </c>
-      <c r="D67" s="3">
+      <c r="B67" s="6">
+        <v>0</v>
+      </c>
+      <c r="C67" s="6">
+        <v>0</v>
+      </c>
+      <c r="D67" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="68" ht="15.5" spans="1:4">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="3">
-        <v>1</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1</v>
-      </c>
-      <c r="D68" s="3">
+      <c r="B68" s="6">
+        <v>1</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="69" ht="15.5" spans="1:4">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="3">
-        <v>0</v>
-      </c>
-      <c r="C69" s="3">
-        <v>0</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="B69" s="6">
+        <v>0</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0</v>
+      </c>
+      <c r="D69" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="70" ht="15.5" spans="1:4">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="3">
-        <v>0</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3">
+      <c r="B70" s="6">
+        <v>0</v>
+      </c>
+      <c r="C70" s="6">
+        <v>1</v>
+      </c>
+      <c r="D70" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="71" ht="15.5" spans="1:4">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="3">
-        <v>0</v>
-      </c>
-      <c r="C71" s="3">
-        <v>0</v>
-      </c>
-      <c r="D71" s="3">
+      <c r="B71" s="6">
+        <v>0</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0</v>
+      </c>
+      <c r="D71" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="72" ht="15.5" spans="1:4">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="3">
-        <v>0</v>
-      </c>
-      <c r="C72" s="3">
-        <v>0</v>
-      </c>
-      <c r="D72" s="3">
+      <c r="B72" s="6">
+        <v>0</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0</v>
+      </c>
+      <c r="D72" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="73" ht="15.5" spans="1:4">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="3">
-        <v>1</v>
-      </c>
-      <c r="C73" s="3">
-        <v>0</v>
-      </c>
-      <c r="D73" s="3">
+      <c r="B73" s="6">
+        <v>1</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+      <c r="D73" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="74" ht="15.5" spans="1:4">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="3">
-        <v>0</v>
-      </c>
-      <c r="C74" s="3">
-        <v>0</v>
-      </c>
-      <c r="D74" s="3">
+      <c r="B74" s="6">
+        <v>0</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0</v>
+      </c>
+      <c r="D74" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="75" ht="15.5" spans="1:4">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="3">
-        <v>0</v>
-      </c>
-      <c r="C75" s="3">
-        <v>0</v>
-      </c>
-      <c r="D75" s="3">
+      <c r="B75" s="6">
+        <v>0</v>
+      </c>
+      <c r="C75" s="6">
+        <v>0</v>
+      </c>
+      <c r="D75" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="76" ht="15.5" spans="1:4">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="3">
-        <v>0</v>
-      </c>
-      <c r="C76" s="3">
-        <v>0</v>
-      </c>
-      <c r="D76" s="3">
+      <c r="B76" s="6">
+        <v>0</v>
+      </c>
+      <c r="C76" s="6">
+        <v>0</v>
+      </c>
+      <c r="D76" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="77" ht="15.5" spans="1:4">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" ht="15.5" spans="2:4">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
     </row>
     <row r="79" ht="15.5" spans="2:4">
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80" ht="15.5" spans="2:4">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
     </row>
     <row r="81" ht="15.5" spans="2:4">
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
     </row>
     <row r="82" ht="15.5" spans="2:4">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83" ht="15.5" spans="2:4">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
     </row>
     <row r="84" ht="15.5" spans="2:4">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
     </row>
     <row r="85" ht="15.5" spans="2:4">
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
     </row>
     <row r="86" ht="15.5" spans="2:4">
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
     </row>
     <row r="87" ht="15.5" spans="2:4">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
     </row>
     <row r="88" ht="15.5" spans="2:4">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
     </row>
     <row r="89" ht="15.5" spans="2:4">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
     </row>
     <row r="90" ht="15.5" spans="2:4">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2522,127 +2642,672 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
-    <col min="2" max="4" width="13.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="26.9090909090909" customWidth="1"/>
-    <col min="7" max="7" width="23.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="21.5454545454545" customWidth="1"/>
-    <col min="9" max="9" width="11.1818181818182" customWidth="1"/>
-    <col min="10" max="10" width="12.9090909090909" customWidth="1"/>
-    <col min="11" max="11" width="12.7272727272727" customWidth="1"/>
-    <col min="12" max="12" width="28.4545454545455" customWidth="1"/>
-    <col min="13" max="13" width="30.0909090909091" customWidth="1"/>
-    <col min="14" max="14" width="13.2727272727273" customWidth="1"/>
-    <col min="15" max="15" width="10.3636363636364" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="12.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="17.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="20.7272727272727" customWidth="1"/>
+    <col min="4" max="10" width="25.6363636363636" customWidth="1"/>
+    <col min="11" max="11" width="27.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" ht="15.5" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="3">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3">
+        <v>84</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="15.5" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>46</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="15.5" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="3">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" ht="15.5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:11">
+      <c r="A10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:11">
+      <c r="A12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>4</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:11">
+      <c r="A13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" ht="15.5" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="6:6">
-      <c r="F10" t="s">
-        <v>85</v>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:11">
+      <c r="A14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:11">
+      <c r="A15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:11">
+      <c r="A16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1"/>
+    <row r="18" ht="15" customHeight="1" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="6">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6">
+        <v>52</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:1">
+      <c r="A23" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Pilot_Results/Pilot_Results.xlsx
+++ b/Pilot_Results/Pilot_Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Data Lable" sheetId="1" r:id="rId1"/>
@@ -1415,7 +1415,7 @@
   <sheetPr/>
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2644,7 +2644,7 @@
   <sheetPr/>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/Pilot_Results/Pilot_Results.xlsx
+++ b/Pilot_Results/Pilot_Results.xlsx
@@ -7,11 +7,12 @@
     <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Lable" sheetId="1" r:id="rId1"/>
-    <sheet name="Evaluation" sheetId="3" r:id="rId2"/>
+    <sheet name="Data Labling" sheetId="1" r:id="rId1"/>
+    <sheet name="Accurcy Metrics" sheetId="4" r:id="rId2"/>
+    <sheet name="Manual Assesment" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Lable'!$D$1:$D$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Labling'!$D$1:$D$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="122">
   <si>
     <t>Link</t>
   </si>
@@ -276,6 +277,62 @@
     <t>ID</t>
   </si>
   <si>
+    <t>Consistent Arguments
+ (First Author)</t>
+  </si>
+  <si>
+    <t>Consistent Arguments
+ (Third Author)</t>
+  </si>
+  <si>
+    <t>#SO 76313670</t>
+  </si>
+  <si>
+    <t>#SO 77070210</t>
+  </si>
+  <si>
+    <t>#Issue 2378</t>
+  </si>
+  <si>
+    <t>#SO 77290436</t>
+  </si>
+  <si>
+    <t>#Discussion 626</t>
+  </si>
+  <si>
+    <t>#SO 77615623</t>
+  </si>
+  <si>
+    <t>#Discussion 3597</t>
+  </si>
+  <si>
+    <t>#SO 77386644</t>
+  </si>
+  <si>
+    <t>#SO 77875225</t>
+  </si>
+  <si>
+    <t>#SO 78166966</t>
+  </si>
+  <si>
+    <t>#Discussion 214</t>
+  </si>
+  <si>
+    <t>#Issue 270</t>
+  </si>
+  <si>
+    <t>#SO 77361294</t>
+  </si>
+  <si>
+    <t>#Issue 7560</t>
+  </si>
+  <si>
+    <t>#SO 77224893</t>
+  </si>
+  <si>
+    <t>kappa=0.863</t>
+  </si>
+  <si>
     <t>LLM</t>
   </si>
   <si>
@@ -306,73 +363,28 @@
     <t>Misleading  (Second Author)</t>
   </si>
   <si>
-    <t>#SO 76313670</t>
-  </si>
-  <si>
     <t>gpt-3.5-turbo</t>
   </si>
   <si>
     <t>zeroshot</t>
   </si>
   <si>
-    <t>#SO 77070210</t>
-  </si>
-  <si>
     <t>gpt-4-0613</t>
   </si>
   <si>
-    <t>#Issue 2378</t>
-  </si>
-  <si>
     <t>gemini-1.0-pro</t>
   </si>
   <si>
-    <t>#SO 77290436</t>
-  </si>
-  <si>
     <t>Llama3-8B</t>
   </si>
   <si>
-    <t>#Discussion 626</t>
-  </si>
-  <si>
     <t>mistral-7B</t>
   </si>
   <si>
-    <t>#SO 77615623</t>
-  </si>
-  <si>
     <t>CoT</t>
   </si>
   <si>
-    <t>#Discussion 3597</t>
-  </si>
-  <si>
-    <t>#SO 77386644</t>
-  </si>
-  <si>
-    <t>#SO 77875225</t>
-  </si>
-  <si>
-    <t>#SO 78166966</t>
-  </si>
-  <si>
-    <t>#Discussion 214</t>
-  </si>
-  <si>
     <t>LLM-based Agent</t>
-  </si>
-  <si>
-    <t>#Issue 270</t>
-  </si>
-  <si>
-    <t>#SO 77361294</t>
-  </si>
-  <si>
-    <t>#Issue 7560</t>
-  </si>
-  <si>
-    <t>#SO 77224893</t>
   </si>
   <si>
     <t>Insightful</t>
@@ -613,6 +625,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -758,12 +776,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,7 +960,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,16 +984,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -990,70 +1002,70 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1073,7 +1085,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,6 +1109,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
@@ -1442,7 +1460,7 @@
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6">
@@ -1456,7 +1474,7 @@
       </c>
     </row>
     <row r="3" ht="15.5" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6">
@@ -1470,7 +1488,7 @@
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
@@ -1484,7 +1502,7 @@
       </c>
     </row>
     <row r="5" ht="15.5" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
@@ -1498,7 +1516,7 @@
       </c>
     </row>
     <row r="6" ht="15.5" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="6">
@@ -1512,7 +1530,7 @@
       </c>
     </row>
     <row r="7" ht="15.5" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="6">
@@ -1526,7 +1544,7 @@
       </c>
     </row>
     <row r="8" ht="15.5" spans="1:4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="6">
@@ -1540,7 +1558,7 @@
       </c>
     </row>
     <row r="9" ht="15.5" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="6">
@@ -1554,7 +1572,7 @@
       </c>
     </row>
     <row r="10" ht="15.5" spans="1:4">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="6">
@@ -1568,7 +1586,7 @@
       </c>
     </row>
     <row r="11" ht="15.5" spans="1:4">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="6">
@@ -1582,7 +1600,7 @@
       </c>
     </row>
     <row r="12" ht="15.5" spans="1:4">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="6">
@@ -1596,7 +1614,7 @@
       </c>
     </row>
     <row r="13" ht="15.5" spans="1:4">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="6">
@@ -1610,7 +1628,7 @@
       </c>
     </row>
     <row r="14" ht="15.5" spans="1:4">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="6">
@@ -1624,7 +1642,7 @@
       </c>
     </row>
     <row r="15" ht="15.5" spans="1:4">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="6">
@@ -1638,7 +1656,7 @@
       </c>
     </row>
     <row r="16" ht="15.5" spans="1:4">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="6">
@@ -1652,7 +1670,7 @@
       </c>
     </row>
     <row r="17" ht="15.5" spans="1:4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="6">
@@ -1666,7 +1684,7 @@
       </c>
     </row>
     <row r="18" ht="15.5" spans="1:4">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="6">
@@ -1680,7 +1698,7 @@
       </c>
     </row>
     <row r="19" ht="15.5" spans="1:4">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="6">
@@ -1694,7 +1712,7 @@
       </c>
     </row>
     <row r="20" ht="15.5" spans="1:4">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="6">
@@ -1708,7 +1726,7 @@
       </c>
     </row>
     <row r="21" ht="15.5" spans="1:4">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="6">
@@ -1722,7 +1740,7 @@
       </c>
     </row>
     <row r="22" ht="15.5" spans="1:4">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="6">
@@ -1736,7 +1754,7 @@
       </c>
     </row>
     <row r="23" ht="15.5" spans="1:4">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="6">
@@ -1750,7 +1768,7 @@
       </c>
     </row>
     <row r="24" ht="15.5" spans="1:4">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="6">
@@ -1764,7 +1782,7 @@
       </c>
     </row>
     <row r="25" ht="15.5" spans="1:4">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="6">
@@ -1778,7 +1796,7 @@
       </c>
     </row>
     <row r="26" ht="15.5" spans="1:4">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="6">
@@ -1792,7 +1810,7 @@
       </c>
     </row>
     <row r="27" ht="15.5" spans="1:4">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="6">
@@ -1806,7 +1824,7 @@
       </c>
     </row>
     <row r="28" ht="15.5" spans="1:4">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="6">
@@ -1820,7 +1838,7 @@
       </c>
     </row>
     <row r="29" ht="15.5" spans="1:4">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="6">
@@ -1834,7 +1852,7 @@
       </c>
     </row>
     <row r="30" ht="15.5" spans="1:4">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="6">
@@ -1848,7 +1866,7 @@
       </c>
     </row>
     <row r="31" ht="15.5" spans="1:4">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="6">
@@ -1862,7 +1880,7 @@
       </c>
     </row>
     <row r="32" ht="15.5" spans="1:4">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="6">
@@ -1876,7 +1894,7 @@
       </c>
     </row>
     <row r="33" ht="15.5" spans="1:4">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="6">
@@ -1890,7 +1908,7 @@
       </c>
     </row>
     <row r="34" ht="15.5" spans="1:4">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="6">
@@ -1904,7 +1922,7 @@
       </c>
     </row>
     <row r="35" ht="15.5" spans="1:4">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="6">
@@ -1918,7 +1936,7 @@
       </c>
     </row>
     <row r="36" ht="15.5" spans="1:4">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="6">
@@ -1932,7 +1950,7 @@
       </c>
     </row>
     <row r="37" ht="15.5" spans="1:4">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="6">
@@ -1946,7 +1964,7 @@
       </c>
     </row>
     <row r="38" ht="15.5" spans="1:4">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="6">
@@ -1960,7 +1978,7 @@
       </c>
     </row>
     <row r="39" ht="15.5" spans="1:4">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="6">
@@ -1974,7 +1992,7 @@
       </c>
     </row>
     <row r="40" ht="15.5" spans="1:4">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="6">
@@ -1988,7 +2006,7 @@
       </c>
     </row>
     <row r="41" ht="15.5" spans="1:4">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="6">
@@ -2002,7 +2020,7 @@
       </c>
     </row>
     <row r="42" ht="15.5" spans="1:4">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="6">
@@ -2016,7 +2034,7 @@
       </c>
     </row>
     <row r="43" ht="15.5" spans="1:4">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B43" s="6">
@@ -2030,7 +2048,7 @@
       </c>
     </row>
     <row r="44" ht="15.5" spans="1:4">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="6">
@@ -2044,7 +2062,7 @@
       </c>
     </row>
     <row r="45" ht="15.5" spans="1:4">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="6">
@@ -2058,7 +2076,7 @@
       </c>
     </row>
     <row r="46" ht="15.5" spans="1:4">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="6">
@@ -2072,7 +2090,7 @@
       </c>
     </row>
     <row r="47" ht="15.5" spans="1:4">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="6">
@@ -2086,7 +2104,7 @@
       </c>
     </row>
     <row r="48" ht="15.5" spans="1:4">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="6">
@@ -2100,7 +2118,7 @@
       </c>
     </row>
     <row r="49" ht="15.5" spans="1:4">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="6">
@@ -2114,7 +2132,7 @@
       </c>
     </row>
     <row r="50" ht="15.5" spans="1:4">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="6">
@@ -2128,7 +2146,7 @@
       </c>
     </row>
     <row r="51" ht="15.5" spans="1:4">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="6">
@@ -2142,7 +2160,7 @@
       </c>
     </row>
     <row r="52" ht="15.5" spans="1:4">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="6">
@@ -2156,7 +2174,7 @@
       </c>
     </row>
     <row r="53" ht="15.5" spans="1:4">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="6">
@@ -2170,7 +2188,7 @@
       </c>
     </row>
     <row r="54" ht="15.5" spans="1:4">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="6">
@@ -2184,7 +2202,7 @@
       </c>
     </row>
     <row r="55" ht="15.5" spans="1:4">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="6">
@@ -2198,7 +2216,7 @@
       </c>
     </row>
     <row r="56" ht="15.5" spans="1:4">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="6">
@@ -2212,7 +2230,7 @@
       </c>
     </row>
     <row r="57" ht="15.5" spans="1:4">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="6">
@@ -2226,7 +2244,7 @@
       </c>
     </row>
     <row r="58" ht="15.5" spans="1:4">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="6">
@@ -2240,7 +2258,7 @@
       </c>
     </row>
     <row r="59" ht="15.5" spans="1:4">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="6">
@@ -2254,7 +2272,7 @@
       </c>
     </row>
     <row r="60" ht="15.5" spans="1:4">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="6">
@@ -2268,7 +2286,7 @@
       </c>
     </row>
     <row r="61" ht="15.5" spans="1:4">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B61" s="6">
@@ -2282,7 +2300,7 @@
       </c>
     </row>
     <row r="62" ht="15.5" spans="1:4">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="6">
@@ -2296,7 +2314,7 @@
       </c>
     </row>
     <row r="63" ht="15.5" spans="1:4">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="6">
@@ -2310,7 +2328,7 @@
       </c>
     </row>
     <row r="64" ht="15.5" spans="1:4">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="6">
@@ -2324,7 +2342,7 @@
       </c>
     </row>
     <row r="65" ht="15.5" spans="1:4">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="6">
@@ -2338,7 +2356,7 @@
       </c>
     </row>
     <row r="66" ht="15.5" spans="1:4">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B66" s="6">
@@ -2352,7 +2370,7 @@
       </c>
     </row>
     <row r="67" ht="15.5" spans="1:4">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B67" s="6">
@@ -2366,7 +2384,7 @@
       </c>
     </row>
     <row r="68" ht="15.5" spans="1:4">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="6">
@@ -2380,7 +2398,7 @@
       </c>
     </row>
     <row r="69" ht="15.5" spans="1:4">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="6">
@@ -2394,7 +2412,7 @@
       </c>
     </row>
     <row r="70" ht="15.5" spans="1:4">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B70" s="6">
@@ -2408,7 +2426,7 @@
       </c>
     </row>
     <row r="71" ht="15.5" spans="1:4">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="6">
@@ -2422,7 +2440,7 @@
       </c>
     </row>
     <row r="72" ht="15.5" spans="1:4">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="6">
@@ -2436,7 +2454,7 @@
       </c>
     </row>
     <row r="73" ht="15.5" spans="1:4">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B73" s="6">
@@ -2450,7 +2468,7 @@
       </c>
     </row>
     <row r="74" ht="15.5" spans="1:4">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B74" s="6">
@@ -2464,7 +2482,7 @@
       </c>
     </row>
     <row r="75" ht="15.5" spans="1:4">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B75" s="6">
@@ -2478,7 +2496,7 @@
       </c>
     </row>
     <row r="76" ht="15.5" spans="1:4">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="6">
@@ -2642,6 +2660,209 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="28.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="37.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="40" customHeight="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" ht="15.5" customHeight="1" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.5" customHeight="1" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="15.5" customHeight="1" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.5" customHeight="1" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.5" customHeight="1" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="15.5" customHeight="1" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="15.5" customHeight="1" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="15.5" customHeight="1" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="15.5" customHeight="1" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="15.5" customHeight="1" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="15.5" customHeight="1" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="15.5" customHeight="1" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="15.5" customHeight="1" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" ht="15.5" customHeight="1" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="15.5" customHeight="1" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="15.5" spans="1:1">
+      <c r="A17" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2662,45 +2883,45 @@
         <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -2729,13 +2950,13 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -2764,13 +2985,13 @@
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -2799,13 +3020,13 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -2834,13 +3055,13 @@
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2869,13 +3090,13 @@
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -2904,13 +3125,13 @@
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:11">
       <c r="A8" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -2939,13 +3160,13 @@
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -2974,13 +3195,13 @@
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -3009,13 +3230,13 @@
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
@@ -3044,13 +3265,13 @@
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -3079,13 +3300,13 @@
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -3114,13 +3335,13 @@
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:11">
       <c r="A14" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -3149,13 +3370,13 @@
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:11">
       <c r="A15" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -3184,13 +3405,13 @@
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -3221,21 +3442,21 @@
     <row r="18" ht="15" customHeight="1" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B19" s="6">
         <v>17</v>
@@ -3252,7 +3473,7 @@
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B20" s="6">
         <v>3</v>
@@ -3269,7 +3490,7 @@
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B21" s="6">
         <v>0</v>
@@ -3286,7 +3507,7 @@
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
@@ -3303,7 +3524,7 @@
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:1">
       <c r="A23" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Pilot_Results/Pilot_Results.xlsx
+++ b/Pilot_Results/Pilot_Results.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Data Labling" sheetId="1" r:id="rId1"/>
     <sheet name="Accurcy Metrics" sheetId="4" r:id="rId2"/>
-    <sheet name="Manual Assesment" sheetId="3" r:id="rId3"/>
+    <sheet name="IHUM-Category" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Labling'!$D$1:$D$90</definedName>

--- a/Pilot_Results/Pilot_Results.xlsx
+++ b/Pilot_Results/Pilot_Results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -1181,6 +1181,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1439,7 +1446,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="82.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="72.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="14.4272727272727" customWidth="1"/>
     <col min="4" max="4" width="17.1363636363636" customWidth="1"/>
@@ -2584,7 +2591,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://stackoverflow.com/questions/76144124"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://stackoverflow.com/questions/76144124" tooltip="https://stackoverflow.com/questions/76144124"/>
     <hyperlink ref="A4" r:id="rId2" display="https://stackoverflow.com/questions/76145836"/>
     <hyperlink ref="A5" r:id="rId3" display="https://stackoverflow.com/questions/76146753"/>
     <hyperlink ref="A6" r:id="rId4" display="https://stackoverflow.com/questions/76158645"/>
@@ -2650,6 +2657,7 @@
     <hyperlink ref="A75" r:id="rId64" display="https://github.com/blw-ofag-ufag/eCH-0261/issues/26"/>
     <hyperlink ref="A76" r:id="rId65" display="https://github.com/software-mansion/react-native-screens/issues/1981"/>
     <hyperlink ref="A70" r:id="rId66" display="https://github.com/WordPress/gutenberg/issues/57234"/>
+    <hyperlink ref="A2" r:id="rId67" display="https://stackoverflow.com/questions/77246412"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
